--- a/biology/Neurosciences/Électrophysiologie/Électrophysiologie.xlsx
+++ b/biology/Neurosciences/Électrophysiologie/Électrophysiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrophysiologie</t>
+          <t>Électrophysiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrophysiologie (du grec ἥλεκτρον, elektron, φύσις, physis, nature, et -λογία, -logia, étude) est l'étude des phénomènes électriques et électrochimiques qui se produisent dans les cellules ou les tissus des organismes vivants et, en particulier, dans les neurones et les fibres musculaires et chez les plantes sensitives (étudiées depuis le début du XXe siècle de ce point de vue, dont par Jagadish Chandra Bose). Elle implique la mesure de différences de tensions ou de courants électriques à différentes échelles biologiques, du canal ionique isolé, jusqu'à des organes entiers, comme le cœur.
-En neurosciences, l'électrophysiologie étudie l'activité électrique des neurones et en particulier l'émission de potentiel d'action. L'enregistrement d'activité électrique plus large du système nerveux, comme par électroencéphalographie, peut également être considéré comme de l'électrophysiologie[1].
+En neurosciences, l'électrophysiologie étudie l'activité électrique des neurones et en particulier l'émission de potentiel d'action. L'enregistrement d'activité électrique plus large du système nerveux, comme par électroencéphalographie, peut également être considéré comme de l'électrophysiologie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrophysiologie</t>
+          <t>Électrophysiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'une des premières expériences d'électrophysiologie fut réalisée par Luigi Galvani, qui décrivit l'électricité animale. Alors qu'il disséquait une grenouille, il constata que le contact entre le métal de son scalpel et le nerf sciatique de l'animal provoquait des contractions musculaires. Il démontra que le scalpel n'était « actif » que s'il était chargé d'électricité statique. Il en déduit que des phénomènes électriques étaient responsables de la contraction des muscles.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lectrophysiologie</t>
+          <t>Électrophysiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,51 +559,162 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Potentiel électrique de membrane
-L'unité de base du vivant, la cellule, possède la caractéristique d'avoir une polarisation négative par rapport à l'extérieur. La membrane phospholipidique est un isolant électrique placé entre deux milieux aqueux conducteurs. Elle joue donc le rôle de condensateur électrique. L'existence de canaux potassium ouverts à l'état de repos permet au gradient chimique de ces ions, maintenu par la pompe sodium-potassium, de se dissiper. La sortie d'ions potassium crée une micro-séparation de charge à la surface de la membrane. Cette séparation de charge est une différence de potentiel électrique, l'intérieur de la cellule devenant négatif par rapport à l'extérieur. Cette valeur négative s'oppose à la sortie des ions potassium.
+          <t>Potentiel électrique de membrane</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'unité de base du vivant, la cellule, possède la caractéristique d'avoir une polarisation négative par rapport à l'extérieur. La membrane phospholipidique est un isolant électrique placé entre deux milieux aqueux conducteurs. Elle joue donc le rôle de condensateur électrique. L'existence de canaux potassium ouverts à l'état de repos permet au gradient chimique de ces ions, maintenu par la pompe sodium-potassium, de se dissiper. La sortie d'ions potassium crée une micro-séparation de charge à la surface de la membrane. Cette séparation de charge est une différence de potentiel électrique, l'intérieur de la cellule devenant négatif par rapport à l'extérieur. Cette valeur négative s'oppose à la sortie des ions potassium.
 Ainsi, pour résumer, le potentiel de membrane est créé par l'existence concomitante de deux phénomènes.
 Un déséquilibre ionique est maintenu par les pompes membranaires, en particulier la Na/K ATPase qui échange des ions sodium contre des ions potassium. Cet échange se fait contre le gradient chimique de ces espèces et nécessite donc de l'énergie, fournie sous forme d'ATP.
-L'ouverture à l'état de repos des canaux potassiques permet au gradient chimique de cet ion de se dissiper par un phénomène de diffusion. Cette sortie d'ions potassium crée une différence de potentiel, polarisant l'intérieur de la cellule négativement par rapport à l'extérieur.
-Cellules excitables
-Certaines cellules spécialisées ont la capacité de se dépolariser soudainement quand leur potentiel de membrane a été dépolarisé au-delà d'une valeur seuil. Cette dépolarisation explosive est suivie d'une repolarisation. Il s'agit d'un potentiel d'action. Il fait intervenir l'ouverture et la fermeture de canaux ioniques dépendant du potentiel de membrane perméables soit au sodium ou au calcium (ils permettent la dépolarisation), soit au potassium (ils permettent la repolarisation qui va parfois jusqu'à une légère hyperpolarisation).
+L'ouverture à l'état de repos des canaux potassiques permet au gradient chimique de cet ion de se dissiper par un phénomène de diffusion. Cette sortie d'ions potassium crée une différence de potentiel, polarisant l'intérieur de la cellule négativement par rapport à l'extérieur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Électrophysiologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lectrophysiologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production de courant électrique par le vivant</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cellules excitables</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines cellules spécialisées ont la capacité de se dépolariser soudainement quand leur potentiel de membrane a été dépolarisé au-delà d'une valeur seuil. Cette dépolarisation explosive est suivie d'une repolarisation. Il s'agit d'un potentiel d'action. Il fait intervenir l'ouverture et la fermeture de canaux ioniques dépendant du potentiel de membrane perméables soit au sodium ou au calcium (ils permettent la dépolarisation), soit au potassium (ils permettent la repolarisation qui va parfois jusqu'à une légère hyperpolarisation).
 Les cellules excitables sont :
 les neurones ou cellules nerveuses ;
 les myocytes ou cellules musculaires cardiaques ;
 les myocytes ou cellules musculaires squelettiques striées.
 cas particulier de l'organe électrique de Torpedo…
-Maintien de l'équilibre osmotique
-Du courant électrique permet le fonctionnement du rein, la « turgescence » des cellules végétales…
-Production d'énergie
-En fin de la chaîne bioénergétique, aussi bien dans les mitochondries que dans les chloroplastes, un flux de protons à travers l'ATP synthétase permet la synthèse d'ATP.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89lectrophysiologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Électrophysiologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89lectrophysiologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production de courant électrique par le vivant</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maintien de l'équilibre osmotique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du courant électrique permet le fonctionnement du rein, la « turgescence » des cellules végétales…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Électrophysiologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lectrophysiologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production de courant électrique par le vivant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production d'énergie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En fin de la chaîne bioénergétique, aussi bien dans les mitochondries que dans les chloroplastes, un flux de protons à travers l'ATP synthétase permet la synthèse d'ATP.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Électrophysiologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lectrophysiologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Méthodes électrophysiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Différentes techniques permettent, à l'aide d'électrodes, de mesurer les propriétés électriques des systèmes biologiques.
 Les techniques de patch-clamp permettent de mesurer les courants électriques internes à une cellule, voir les courants traversant une fraction de sa membrane, et même un seul canal ionique.
